--- a/biology/Zoologie/Journée_mondiale_de_l'éléphant/Journée_mondiale_de_l'éléphant.xlsx
+++ b/biology/Zoologie/Journée_mondiale_de_l'éléphant/Journée_mondiale_de_l'éléphant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27%C3%A9l%C3%A9phant</t>
+          <t>Journée_mondiale_de_l'éléphant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La journée mondiale de l'éléphant est une journée internationale créée en 2012, dans le but de sensibiliser à la protection de l'éléphant, qui est gravement menacé d'extinction[1]. La journée mondiale a été créée par la cinéaste canadienne Patricia Sims et la Fondation pour la réintroduction des éléphants (Elephant Reintroduction Foundation)[2]. Cette dernière déplore le cercle vicieux du braconnage des éléphants : moins l'espèce est nombreuse, et plus son ivoire prend de la valeur, ce qui accroit en retour le braconnage[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La journée mondiale de l'éléphant est une journée internationale créée en 2012, dans le but de sensibiliser à la protection de l'éléphant, qui est gravement menacé d'extinction. La journée mondiale a été créée par la cinéaste canadienne Patricia Sims et la Fondation pour la réintroduction des éléphants (Elephant Reintroduction Foundation). Cette dernière déplore le cercle vicieux du braconnage des éléphants : moins l'espèce est nombreuse, et plus son ivoire prend de la valeur, ce qui accroit en retour le braconnage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27%C3%A9l%C3%A9phant</t>
+          <t>Journée_mondiale_de_l'éléphant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>En 2015</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, la journée est placée sous la thématique de l'illustration, chaque personne étant invitée à créer un « élégramme », soit un éléphant dans les matières et avec la technique artistique de son choix, puis à le photographier[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, la journée est placée sous la thématique de l'illustration, chaque personne étant invitée à créer un « élégramme », soit un éléphant dans les matières et avec la technique artistique de son choix, puis à le photographier.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27%C3%A9l%C3%A9phant</t>
+          <t>Journée_mondiale_de_l'éléphant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>En 2020</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020, cette journée a été célébrée le 12 août[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, cette journée a été célébrée le 12 août.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27%C3%A9l%C3%A9phant</t>
+          <t>Journée_mondiale_de_l'éléphant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>En 2023</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre de la conservation des éléphants de Dak Lak (Viet Nam) a organisé des sensibilisations le 12 août 2023[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre de la conservation des éléphants de Dak Lak (Viet Nam) a organisé des sensibilisations le 12 août 2023.
 </t>
         </is>
       </c>
